--- a/Annotations/Old/AliceInWonderland.xlsx
+++ b/Annotations/Old/AliceInWonderland.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17832" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17832"/>
   </bookViews>
   <sheets>
     <sheet name="alice" sheetId="1" r:id="rId1"/>
@@ -1889,15 +1889,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P316"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F319" sqref="F319"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="54.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="54.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="54.44140625" style="2" customWidth="1"/>
@@ -1959,7 +1959,7 @@
     <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.6672677599902872</v>
+        <v>0.4537417742852653</v>
       </c>
       <c r="B2" s="2">
         <v>173</v>
@@ -1986,7 +1986,7 @@
     <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5729226690244168</v>
+        <v>0.39366158555641684</v>
       </c>
       <c r="B3" s="2">
         <v>275</v>
@@ -2010,7 +2010,7 @@
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61885386464752756</v>
+        <v>0.11190487889964418</v>
       </c>
       <c r="B4" s="2">
         <v>127</v>
@@ -2034,7 +2034,7 @@
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69062773460488169</v>
+        <v>0.17039908064675091</v>
       </c>
       <c r="B5" s="2">
         <v>94</v>
@@ -2058,7 +2058,7 @@
     <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.226755672481878E-2</v>
+        <v>0.11403094795408453</v>
       </c>
       <c r="B6" s="2">
         <v>172</v>
@@ -2082,7 +2082,7 @@
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25182226837073129</v>
+        <v>0.29784846295208933</v>
       </c>
       <c r="B7" s="2">
         <v>39</v>
@@ -2109,7 +2109,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57623568047039009</v>
+        <v>0.44343592356343942</v>
       </c>
       <c r="B8" s="2">
         <v>174</v>
@@ -2130,7 +2130,7 @@
     <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31189625941075483</v>
+        <v>0.385044815513223</v>
       </c>
       <c r="B9" s="2">
         <v>154</v>
@@ -2154,7 +2154,7 @@
     <row r="10" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65668565878562635</v>
+        <v>0.4670699690557315</v>
       </c>
       <c r="B10" s="2">
         <v>69</v>
@@ -2178,7 +2178,7 @@
     <row r="11" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70926322152297572</v>
+        <v>0.11061608585225824</v>
       </c>
       <c r="B11" s="2">
         <v>179</v>
@@ -2208,7 +2208,7 @@
     <row r="12" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59060011074958596</v>
+        <v>0.35848359127283269</v>
       </c>
       <c r="B12" s="2">
         <v>195</v>
@@ -2235,7 +2235,7 @@
     <row r="13" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29450532813568397</v>
+        <v>0.74692479958182667</v>
       </c>
       <c r="B13" s="2">
         <v>57</v>
@@ -2259,7 +2259,7 @@
     <row r="14" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30667352417980953</v>
+        <v>0.89044955074833532</v>
       </c>
       <c r="B14" s="2">
         <v>203</v>
@@ -2283,7 +2283,7 @@
     <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20902273996361675</v>
+        <v>0.25614518143850151</v>
       </c>
       <c r="B15" s="2">
         <v>87</v>
@@ -2304,7 +2304,7 @@
     <row r="16" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9290891458955164E-2</v>
+        <v>0.76355104590365586</v>
       </c>
       <c r="B16" s="2">
         <v>136</v>
@@ -2328,7 +2328,7 @@
     <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94063886113571071</v>
+        <v>0.4758090640078807</v>
       </c>
       <c r="B17" s="2">
         <v>67</v>
@@ -2352,7 +2352,7 @@
     <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87448562313741685</v>
+        <v>6.1221110376902921E-2</v>
       </c>
       <c r="B18" s="2">
         <v>181</v>
@@ -2379,7 +2379,7 @@
     <row r="19" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56153186675777933</v>
+        <v>9.1938943272888762E-2</v>
       </c>
       <c r="B19" s="2">
         <v>192</v>
@@ -2406,7 +2406,7 @@
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66703525149866139</v>
+        <v>0.50528652677219632</v>
       </c>
       <c r="B20" s="2">
         <v>308</v>
@@ -2430,7 +2430,7 @@
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79173510368256361</v>
+        <v>0.91719209822390946</v>
       </c>
       <c r="B21" s="2">
         <v>43</v>
@@ -2451,7 +2451,7 @@
     <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10625778413992082</v>
+        <v>0.45752271539754819</v>
       </c>
       <c r="B22" s="2">
         <v>221</v>
@@ -2475,7 +2475,7 @@
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19649342343184339</v>
+        <v>0.74063241009249214</v>
       </c>
       <c r="B23" s="2">
         <v>47</v>
@@ -2496,7 +2496,7 @@
     <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95552271420253942</v>
+        <v>0.16136137086889235</v>
       </c>
       <c r="B24" s="2">
         <v>111</v>
@@ -2520,7 +2520,7 @@
     <row r="25" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3526911575415469</v>
+        <v>0.91389095085824101</v>
       </c>
       <c r="B25" s="2">
         <v>74</v>
@@ -2544,7 +2544,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35084291956729041</v>
+        <v>0.23816765185800659</v>
       </c>
       <c r="B26" s="2">
         <v>292</v>
@@ -2568,7 +2568,7 @@
     <row r="27" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31149195256843987</v>
+        <v>0.90552981965803825</v>
       </c>
       <c r="B27" s="2">
         <v>201</v>
@@ -2589,7 +2589,7 @@
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95247175355824065</v>
+        <v>0.75674840433818236</v>
       </c>
       <c r="B28" s="2">
         <v>218</v>
@@ -2613,7 +2613,7 @@
     <row r="29" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94415687069492837</v>
+        <v>6.2297212046084405E-2</v>
       </c>
       <c r="B29" s="2">
         <v>198</v>
@@ -2640,7 +2640,7 @@
     <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74887442355176104</v>
+        <v>0.42401387087456455</v>
       </c>
       <c r="B30" s="2">
         <v>149</v>
@@ -2664,7 +2664,7 @@
     <row r="31" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11674548669627105</v>
+        <v>9.9342503410355665E-2</v>
       </c>
       <c r="B31" s="2">
         <v>153</v>
@@ -2688,7 +2688,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92969472943891085</v>
+        <v>0.42478269298097981</v>
       </c>
       <c r="B32" s="2">
         <v>220</v>
@@ -2715,7 +2715,7 @@
     <row r="33" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8505347205267253</v>
+        <v>3.8868077251270394E-2</v>
       </c>
       <c r="B33" s="2">
         <v>22</v>
@@ -2739,7 +2739,7 @@
     <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61156536836756081</v>
+        <v>0.12491367138982024</v>
       </c>
       <c r="B34" s="2">
         <v>226</v>
@@ -2760,7 +2760,7 @@
     <row r="35" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7282337445869701</v>
+        <v>0.33583784158953678</v>
       </c>
       <c r="B35" s="2">
         <v>10</v>
@@ -2784,7 +2784,7 @@
     <row r="36" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81329893385129781</v>
+        <v>0.34064764585498841</v>
       </c>
       <c r="B36" s="2">
         <v>161</v>
@@ -2808,7 +2808,7 @@
     <row r="37" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47102742512351148</v>
+        <v>4.4126487643258216E-2</v>
       </c>
       <c r="B37" s="2">
         <v>107</v>
@@ -2829,7 +2829,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33645747255072644</v>
+        <v>0.55582171175720518</v>
       </c>
       <c r="B38" s="2">
         <v>115</v>
@@ -2850,7 +2850,7 @@
     <row r="39" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99398720275391705</v>
+        <v>0.51529385129408767</v>
       </c>
       <c r="B39" s="2">
         <v>132</v>
@@ -2871,7 +2871,7 @@
     <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22242159201105183</v>
+        <v>5.635387906329048E-2</v>
       </c>
       <c r="B40" s="2">
         <v>243</v>
@@ -2895,7 +2895,7 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3849480215474754E-2</v>
+        <v>0.26252832980467034</v>
       </c>
       <c r="B41" s="2">
         <v>282</v>
@@ -2919,7 +2919,7 @@
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75661914026373944</v>
+        <v>0.47323387280167184</v>
       </c>
       <c r="B42" s="2">
         <v>29</v>
@@ -2943,7 +2943,7 @@
     <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60073167862586818</v>
+        <v>0.65426258989497132</v>
       </c>
       <c r="B43" s="2">
         <v>137</v>
@@ -2967,7 +2967,7 @@
     <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5749512641015978</v>
+        <v>0.86988678335503411</v>
       </c>
       <c r="B44" s="2">
         <v>119</v>
@@ -2991,7 +2991,7 @@
     <row r="45" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68392690157961911</v>
+        <v>0.3633938635686017</v>
       </c>
       <c r="B45" s="2">
         <v>78</v>
@@ -3015,7 +3015,7 @@
     <row r="46" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74347552186785826</v>
+        <v>0.57351796274264433</v>
       </c>
       <c r="B46" s="2">
         <v>250</v>
@@ -3036,7 +3036,7 @@
     <row r="47" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80589446189223979</v>
+        <v>0.4883329463615288</v>
       </c>
       <c r="B47" s="2">
         <v>91</v>
@@ -3060,7 +3060,7 @@
     <row r="48" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87110161384618656</v>
+        <v>0.90520198241852612</v>
       </c>
       <c r="B48" s="2">
         <v>268</v>
@@ -3084,7 +3084,7 @@
     <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61687302908642072</v>
+        <v>0.16492311610882593</v>
       </c>
       <c r="B49" s="2">
         <v>187</v>
@@ -3108,7 +3108,7 @@
     <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6780148414178204E-2</v>
+        <v>0.16717201967935003</v>
       </c>
       <c r="B50" s="2">
         <v>13</v>
@@ -3132,7 +3132,7 @@
     <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45108109417429831</v>
+        <v>0.6594651388114241</v>
       </c>
       <c r="B51" s="2">
         <v>32</v>
@@ -3153,7 +3153,7 @@
     <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10451285827532852</v>
+        <v>0.87174367543729614</v>
       </c>
       <c r="B52" s="2">
         <v>182</v>
@@ -3174,7 +3174,7 @@
     <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98587874551106902</v>
+        <v>0.9006543268185031</v>
       </c>
       <c r="B53" s="2">
         <v>38</v>
@@ -3201,7 +3201,7 @@
     <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39764400966051217</v>
+        <v>0.62107477699568769</v>
       </c>
       <c r="B54" s="2">
         <v>302</v>
@@ -3231,7 +3231,7 @@
     <row r="55" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30773322612452514</v>
+        <v>0.15334827573682364</v>
       </c>
       <c r="B55" s="2">
         <v>8</v>
@@ -3255,7 +3255,7 @@
     <row r="56" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90375056102140161</v>
+        <v>0.64029315704749779</v>
       </c>
       <c r="B56" s="2">
         <v>163</v>
@@ -3282,7 +3282,7 @@
     <row r="57" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9847646069463043</v>
+        <v>0.82887026329519298</v>
       </c>
       <c r="B57" s="2">
         <v>21</v>
@@ -3306,7 +3306,7 @@
     <row r="58" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43574867210929491</v>
+        <v>0.75753428884825114</v>
       </c>
       <c r="B58" s="2">
         <v>242</v>
@@ -3327,7 +3327,7 @@
     <row r="59" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74260036604797408</v>
+        <v>0.41663061541139612</v>
       </c>
       <c r="B59" s="2">
         <v>245</v>
@@ -3351,7 +3351,7 @@
     <row r="60" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6469855650342451E-2</v>
+        <v>0.44313083349383564</v>
       </c>
       <c r="B60" s="2">
         <v>49</v>
@@ -3378,7 +3378,7 @@
     <row r="61" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7346342519788438</v>
+        <v>0.1943526523016631</v>
       </c>
       <c r="B61" s="2">
         <v>72</v>
@@ -3402,7 +3402,7 @@
     <row r="62" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59725201482558221</v>
+        <v>0.52070709929548764</v>
       </c>
       <c r="B62" s="2">
         <v>314</v>
@@ -3426,7 +3426,7 @@
     <row r="63" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98357784121073877</v>
+        <v>0.53904703451221359</v>
       </c>
       <c r="B63" s="2">
         <v>306</v>
@@ -3450,7 +3450,7 @@
     <row r="64" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75636908640523992</v>
+        <v>0.77216611393628309</v>
       </c>
       <c r="B64" s="2">
         <v>252</v>
@@ -3471,7 +3471,7 @@
     <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49547569966113214</v>
+        <v>0.58170913049043615</v>
       </c>
       <c r="B65" s="2">
         <v>271</v>
@@ -3495,7 +3495,7 @@
     <row r="66" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.15508694214865226</v>
+        <v>0.20830385883255631</v>
       </c>
       <c r="B66" s="2">
         <v>20</v>
@@ -3519,7 +3519,7 @@
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2506389142003989E-2</v>
+        <v>0.36466520207798458</v>
       </c>
       <c r="B67" s="2">
         <v>269</v>
@@ -3543,7 +3543,7 @@
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94778743269662746</v>
+        <v>0.15710308033183396</v>
       </c>
       <c r="B68" s="2">
         <v>177</v>
@@ -3567,7 +3567,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8397251294367728</v>
+        <v>0.84733663474714327</v>
       </c>
       <c r="B69" s="2">
         <v>108</v>
@@ -3588,7 +3588,7 @@
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37995820403316116</v>
+        <v>0.29856939392755599</v>
       </c>
       <c r="B70" s="2">
         <v>301</v>
@@ -3615,7 +3615,7 @@
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28962744722542422</v>
+        <v>0.27376219313782257</v>
       </c>
       <c r="B71" s="2">
         <v>34</v>
@@ -3642,7 +3642,7 @@
     <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93221781931299075</v>
+        <v>0.27887381124066013</v>
       </c>
       <c r="B72" s="2">
         <v>286</v>
@@ -3666,7 +3666,7 @@
     <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58064247498300825</v>
+        <v>0.52883148683825965</v>
       </c>
       <c r="B73" s="2">
         <v>280</v>
@@ -3690,7 +3690,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63393296692305035</v>
+        <v>0.92153755518360347</v>
       </c>
       <c r="B74" s="2">
         <v>272</v>
@@ -3717,7 +3717,7 @@
     <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8962920482450154</v>
+        <v>0.70230962707863798</v>
       </c>
       <c r="B75" s="2">
         <v>150</v>
@@ -3741,7 +3741,7 @@
     <row r="76" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80577757247407944</v>
+        <v>0.84264468338478726</v>
       </c>
       <c r="B76" s="2">
         <v>51</v>
@@ -3768,7 +3768,7 @@
     <row r="77" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48444066491598847</v>
+        <v>0.65938392446801419</v>
       </c>
       <c r="B77" s="2">
         <v>45</v>
@@ -3795,7 +3795,7 @@
     <row r="78" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21989854316239354</v>
+        <v>1.3248076890163385E-2</v>
       </c>
       <c r="B78" s="2">
         <v>165</v>
@@ -3822,7 +3822,7 @@
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91671026417933188</v>
+        <v>0.32347878085784865</v>
       </c>
       <c r="B79" s="2">
         <v>300</v>
@@ -3849,7 +3849,7 @@
     <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92794276800542852</v>
+        <v>0.37390712271532001</v>
       </c>
       <c r="B80" s="2">
         <v>167</v>
@@ -3873,7 +3873,7 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53263906178721077</v>
+        <v>0.75072383736756632</v>
       </c>
       <c r="B81" s="2">
         <v>114</v>
@@ -3897,7 +3897,7 @@
     <row r="82" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68189955586934869</v>
+        <v>0.41679306737334321</v>
       </c>
       <c r="B82" s="2">
         <v>238</v>
@@ -3924,7 +3924,7 @@
     <row r="83" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94426125939903638</v>
+        <v>0.95127366096669264</v>
       </c>
       <c r="B83" s="2">
         <v>82</v>
@@ -3948,7 +3948,7 @@
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36118659747185444</v>
+        <v>0.92297064632512849</v>
       </c>
       <c r="B84" s="2">
         <v>175</v>
@@ -3972,7 +3972,7 @@
     <row r="85" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24004872799900512</v>
+        <v>0.54833460811910928</v>
       </c>
       <c r="B85" s="2">
         <v>184</v>
@@ -3996,7 +3996,7 @@
     <row r="86" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96060332456360997</v>
+        <v>0.55141078169671787</v>
       </c>
       <c r="B86" s="2">
         <v>130</v>
@@ -4020,7 +4020,7 @@
     <row r="87" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87813483407077531</v>
+        <v>0.94960054130751681</v>
       </c>
       <c r="B87" s="2">
         <v>157</v>
@@ -4041,7 +4041,7 @@
     <row r="88" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65911421074082488</v>
+        <v>0.5560789696038333</v>
       </c>
       <c r="B88" s="2">
         <v>311</v>
@@ -4065,7 +4065,7 @@
     <row r="89" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69974581917981615</v>
+        <v>0.76486494747999167</v>
       </c>
       <c r="B89" s="2">
         <v>55</v>
@@ -4089,7 +4089,7 @@
     <row r="90" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72557672001239715</v>
+        <v>0.87628785995488978</v>
       </c>
       <c r="B90" s="2">
         <v>251</v>
@@ -4113,7 +4113,7 @@
     <row r="91" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56528604647759995</v>
+        <v>0.51804855276498296</v>
       </c>
       <c r="B91" s="2">
         <v>178</v>
@@ -4143,7 +4143,7 @@
     <row r="92" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35261543983688237</v>
+        <v>0.90580296199293864</v>
       </c>
       <c r="B92" s="2">
         <v>123</v>
@@ -4167,7 +4167,7 @@
     <row r="93" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82753146308536218</v>
+        <v>0.56472121703688138</v>
       </c>
       <c r="B93" s="2">
         <v>93</v>
@@ -4191,7 +4191,7 @@
     <row r="94" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81340447585106757</v>
+        <v>1.6743502715873659E-2</v>
       </c>
       <c r="B94" s="2">
         <v>205</v>
@@ -4215,7 +4215,7 @@
     <row r="95" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46125813622414702</v>
+        <v>0.36636960225569504</v>
       </c>
       <c r="B95" s="2">
         <v>155</v>
@@ -4239,7 +4239,7 @@
     <row r="96" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46073423258105473</v>
+        <v>0.84456021651818447</v>
       </c>
       <c r="B96" s="2">
         <v>254</v>
@@ -4263,7 +4263,7 @@
     <row r="97" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58048799385641581</v>
+        <v>0.28172694198967807</v>
       </c>
       <c r="B97" s="2">
         <v>83</v>
@@ -4287,7 +4287,7 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98882807440970333</v>
+        <v>0.76234375176238545</v>
       </c>
       <c r="B98" s="2">
         <v>37</v>
@@ -4311,7 +4311,7 @@
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57615847408960386</v>
+        <v>0.96050295571549182</v>
       </c>
       <c r="B99" s="2">
         <v>28</v>
@@ -4335,7 +4335,7 @@
     <row r="100" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1494619848430085E-2</v>
+        <v>0.99791511210516182</v>
       </c>
       <c r="B100" s="2">
         <v>135</v>
@@ -4359,7 +4359,7 @@
     <row r="101" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7440283254654585</v>
+        <v>0.46628495980684448</v>
       </c>
       <c r="B101" s="2">
         <v>263</v>
@@ -4386,7 +4386,7 @@
     <row r="102" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8447132690698862</v>
+        <v>0.51741778389590665</v>
       </c>
       <c r="B102" s="2">
         <v>261</v>
@@ -4407,7 +4407,7 @@
     <row r="103" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72101632151485751</v>
+        <v>0.210062319902376</v>
       </c>
       <c r="B103" s="2">
         <v>33</v>
@@ -4431,7 +4431,7 @@
     <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43351760237745607</v>
+        <v>0.71513687378050472</v>
       </c>
       <c r="B104" s="2">
         <v>196</v>
@@ -4458,7 +4458,7 @@
     <row r="105" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75181945055041777</v>
+        <v>0.78338273590323981</v>
       </c>
       <c r="B105" s="2">
         <v>110</v>
@@ -4485,7 +4485,7 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56110371499337974</v>
+        <v>0.26042986153548731</v>
       </c>
       <c r="B106" s="2">
         <v>285</v>
@@ -4509,7 +4509,7 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78211918994168506</v>
+        <v>0.94109356565447566</v>
       </c>
       <c r="B107" s="2">
         <v>283</v>
@@ -4533,7 +4533,7 @@
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44084121599908255</v>
+        <v>0.48919952497486596</v>
       </c>
       <c r="B108" s="2">
         <v>210</v>
@@ -4557,7 +4557,7 @@
     <row r="109" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76535930062408131</v>
+        <v>9.4683860468666392E-2</v>
       </c>
       <c r="B109" s="2">
         <v>259</v>
@@ -4584,7 +4584,7 @@
     <row r="110" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7116200978270646E-2</v>
+        <v>0.49704847476019542</v>
       </c>
       <c r="B110" s="2">
         <v>148</v>
@@ -4608,7 +4608,7 @@
     <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11016903891873486</v>
+        <v>0.25548479356618137</v>
       </c>
       <c r="B111" s="2">
         <v>40</v>
@@ -4632,7 +4632,7 @@
     <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25052146465471181</v>
+        <v>0.93690265129909656</v>
       </c>
       <c r="B112" s="2">
         <v>216</v>
@@ -4659,7 +4659,7 @@
     <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10341680502005013</v>
+        <v>0.61305383469122221</v>
       </c>
       <c r="B113" s="2">
         <v>12</v>
@@ -4683,7 +4683,7 @@
     <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89541622154325873</v>
+        <v>8.3063829366062381E-3</v>
       </c>
       <c r="B114" s="2">
         <v>247</v>
@@ -4704,7 +4704,7 @@
     <row r="115" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13704106756528778</v>
+        <v>0.11346853916667143</v>
       </c>
       <c r="B115" s="2">
         <v>146</v>
@@ -4728,7 +4728,7 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70141227218091884</v>
+        <v>0.11012877973701962</v>
       </c>
       <c r="B116" s="2">
         <v>18</v>
@@ -4752,7 +4752,7 @@
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8446415197111672E-2</v>
+        <v>0.29836273514370215</v>
       </c>
       <c r="B117" s="2">
         <v>265</v>
@@ -4779,7 +4779,7 @@
     <row r="118" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32099113663506507</v>
+        <v>0.13359873334269035</v>
       </c>
       <c r="B118" s="2">
         <v>147</v>
@@ -4803,7 +4803,7 @@
     <row r="119" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53996154537851326</v>
+        <v>0.88801867028900805</v>
       </c>
       <c r="B119" s="2">
         <v>152</v>
@@ -4827,7 +4827,7 @@
     <row r="120" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.1585055401151193</v>
+        <v>0.93482675069460675</v>
       </c>
       <c r="B120" s="2">
         <v>244</v>
@@ -4848,7 +4848,7 @@
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39841644740085025</v>
+        <v>0.45703525539266354</v>
       </c>
       <c r="B121" s="2">
         <v>162</v>
@@ -4875,7 +4875,7 @@
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56593955275460084</v>
+        <v>0.14890470351266816</v>
       </c>
       <c r="B122" s="2">
         <v>171</v>
@@ -4902,7 +4902,7 @@
     <row r="123" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63534013917395682</v>
+        <v>2.9733850615442092E-3</v>
       </c>
       <c r="B123" s="2">
         <v>70</v>
@@ -4926,7 +4926,7 @@
     <row r="124" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5997807889813602E-2</v>
+        <v>0.96903634098665115</v>
       </c>
       <c r="B124" s="2">
         <v>159</v>
@@ -4950,7 +4950,7 @@
     <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56102195834351365</v>
+        <v>2.8591660393162965E-2</v>
       </c>
       <c r="B125" s="2">
         <v>176</v>
@@ -4977,7 +4977,7 @@
     <row r="126" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69672236731699566</v>
+        <v>0.91647405848640118</v>
       </c>
       <c r="B126" s="2">
         <v>80</v>
@@ -5001,7 +5001,7 @@
     <row r="127" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80653179271192021</v>
+        <v>9.3309763615821328E-2</v>
       </c>
       <c r="B127" s="2">
         <v>223</v>
@@ -5025,7 +5025,7 @@
     <row r="128" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31932316110685854</v>
+        <v>5.4662785428386984E-2</v>
       </c>
       <c r="B128" s="2">
         <v>85</v>
@@ -5046,7 +5046,7 @@
     <row r="129" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60937160904672194</v>
+        <v>1.2216895593104793E-2</v>
       </c>
       <c r="B129" s="2">
         <v>104</v>
@@ -5070,7 +5070,7 @@
     <row r="130" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.72513074938710231</v>
+        <v>0.81034200868167694</v>
       </c>
       <c r="B130" s="2">
         <v>227</v>
@@ -5100,7 +5100,7 @@
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90327389960063631</v>
+        <v>0.1732645901827613</v>
       </c>
       <c r="B131" s="2">
         <v>185</v>
@@ -5121,7 +5121,7 @@
     <row r="132" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81046257673692401</v>
+        <v>0.93243018310621006</v>
       </c>
       <c r="B132" s="2">
         <v>103</v>
@@ -5145,7 +5145,7 @@
     <row r="133" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52502887364890938</v>
+        <v>0.72491396860793733</v>
       </c>
       <c r="B133" s="2">
         <v>14</v>
@@ -5169,7 +5169,7 @@
     <row r="134" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99957120982353331</v>
+        <v>0.23491745327356883</v>
       </c>
       <c r="B134" s="2">
         <v>213</v>
@@ -5193,7 +5193,7 @@
     <row r="135" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49958005427899521</v>
+        <v>0.85709584418453</v>
       </c>
       <c r="B135" s="2">
         <v>24</v>
@@ -5217,7 +5217,7 @@
     <row r="136" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75989109014101985</v>
+        <v>0.68416433407166699</v>
       </c>
       <c r="B136" s="2">
         <v>7</v>
@@ -5241,7 +5241,7 @@
     <row r="137" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43954908051448138</v>
+        <v>0.50494163726485453</v>
       </c>
       <c r="B137" s="2">
         <v>100</v>
@@ -5265,7 +5265,7 @@
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43222247408118053</v>
+        <v>0.76683804561089242</v>
       </c>
       <c r="B138" s="2">
         <v>296</v>
@@ -5289,7 +5289,7 @@
     <row r="139" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30769676179721617</v>
+        <v>0.60510236919667049</v>
       </c>
       <c r="B139" s="2">
         <v>59</v>
@@ -5313,7 +5313,7 @@
     <row r="140" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88558737275835486</v>
+        <v>0.55622781691398848</v>
       </c>
       <c r="B140" s="2">
         <v>232</v>
@@ -5337,7 +5337,7 @@
     <row r="141" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60117722069877033</v>
+        <v>0.18219835100067683</v>
       </c>
       <c r="B141" s="2">
         <v>217</v>
@@ -5364,7 +5364,7 @@
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7902618137372589</v>
+        <v>0.21360605350498985</v>
       </c>
       <c r="B142" s="2">
         <v>219</v>
@@ -5388,7 +5388,7 @@
     <row r="143" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6439508657688332</v>
+        <v>0.69509539456324643</v>
       </c>
       <c r="B143" s="2">
         <v>204</v>
@@ -5415,7 +5415,7 @@
     <row r="144" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48056678312499379</v>
+        <v>0.11752963630039426</v>
       </c>
       <c r="B144" s="2">
         <v>73</v>
@@ -5436,7 +5436,7 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35562283676219952</v>
+        <v>0.81767735522514984</v>
       </c>
       <c r="B145" s="2">
         <v>141</v>
@@ -5460,7 +5460,7 @@
     <row r="146" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40618257066096475</v>
+        <v>0.91052349576613156</v>
       </c>
       <c r="B146" s="2">
         <v>249</v>
@@ -5487,7 +5487,7 @@
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8355184708387871E-2</v>
+        <v>0.65357127698615858</v>
       </c>
       <c r="B147" s="2">
         <v>288</v>
@@ -5511,7 +5511,7 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58416398012536619</v>
+        <v>0.52757384371996341</v>
       </c>
       <c r="B148" s="2">
         <v>255</v>
@@ -5535,7 +5535,7 @@
     <row r="149" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41739385043053279</v>
+        <v>0.12538156749362994</v>
       </c>
       <c r="B149" s="2">
         <v>109</v>
@@ -5559,7 +5559,7 @@
     <row r="150" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76277703740398872</v>
+        <v>0.51105265414087664</v>
       </c>
       <c r="B150" s="2">
         <v>191</v>
@@ -5580,7 +5580,7 @@
     <row r="151" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25041130436280634</v>
+        <v>0.48371281920208009</v>
       </c>
       <c r="B151" s="2">
         <v>81</v>
@@ -5601,7 +5601,7 @@
     <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68807460672584297</v>
+        <v>0.2249540687191226</v>
       </c>
       <c r="B152" s="2">
         <v>89</v>
@@ -5625,7 +5625,7 @@
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15175364222469379</v>
+        <v>1.6591010764755554E-2</v>
       </c>
       <c r="B153" s="2">
         <v>116</v>
@@ -5649,7 +5649,7 @@
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62341851686151872</v>
+        <v>0.10511231019428635</v>
       </c>
       <c r="B154" s="2">
         <v>183</v>
@@ -5673,7 +5673,7 @@
     <row r="155" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18994385122519863</v>
+        <v>0.36143219601968801</v>
       </c>
       <c r="B155" s="2">
         <v>143</v>
@@ -5697,7 +5697,7 @@
     <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33211064292312986</v>
+        <v>0.24475509875650114</v>
       </c>
       <c r="B156" s="2">
         <v>88</v>
@@ -5721,7 +5721,7 @@
     <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5955003141474724</v>
+        <v>0.50426216453344153</v>
       </c>
       <c r="B157" s="2">
         <v>15</v>
@@ -5742,7 +5742,7 @@
     <row r="158" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96001780661568437</v>
+        <v>0.91484617454248407</v>
       </c>
       <c r="B158" s="2">
         <v>239</v>
@@ -5766,7 +5766,7 @@
     <row r="159" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46147511115291662</v>
+        <v>0.27496669263367435</v>
       </c>
       <c r="B159" s="2">
         <v>106</v>
@@ -5790,7 +5790,7 @@
     <row r="160" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3333906609159616E-2</v>
+        <v>0.97130910939243442</v>
       </c>
       <c r="B160" s="2">
         <v>262</v>
@@ -5814,7 +5814,7 @@
     <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79766991700686363</v>
+        <v>0.81198546280034101</v>
       </c>
       <c r="B161" s="2">
         <v>253</v>
@@ -5841,7 +5841,7 @@
     <row r="162" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24552250026209721</v>
+        <v>0.23378344141206264</v>
       </c>
       <c r="B162" s="2">
         <v>86</v>
@@ -5865,7 +5865,7 @@
     <row r="163" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7867412993773929</v>
+        <v>0.57530955923914517</v>
       </c>
       <c r="B163" s="2">
         <v>54</v>
@@ -5886,7 +5886,7 @@
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64650804593594824</v>
+        <v>0.17569110449808134</v>
       </c>
       <c r="B164" s="2">
         <v>125</v>
@@ -5910,7 +5910,7 @@
     <row r="165" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69305726365053011</v>
+        <v>0.15502065879413973</v>
       </c>
       <c r="B165" s="2">
         <v>41</v>
@@ -5934,7 +5934,7 @@
     <row r="166" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71807602086211275</v>
+        <v>0.79750511220977804</v>
       </c>
       <c r="B166" s="2">
         <v>169</v>
@@ -5955,7 +5955,7 @@
     <row r="167" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30556336428322262</v>
+        <v>0.77007134096222851</v>
       </c>
       <c r="B167" s="2">
         <v>6</v>
@@ -5979,7 +5979,7 @@
     <row r="168" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10523440248669835</v>
+        <v>0.97635897435988539</v>
       </c>
       <c r="B168" s="2">
         <v>312</v>
@@ -6006,7 +6006,7 @@
     <row r="169" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31858953535914314</v>
+        <v>0.43255130831491428</v>
       </c>
       <c r="B169" s="2">
         <v>168</v>
@@ -6030,7 +6030,7 @@
     <row r="170" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1305153308931738</v>
+        <v>0.6639029724015687</v>
       </c>
       <c r="B170" s="2">
         <v>145</v>
@@ -6054,7 +6054,7 @@
     <row r="171" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18121075020037802</v>
+        <v>0.49415976222190483</v>
       </c>
       <c r="B171" s="2">
         <v>258</v>
@@ -6078,7 +6078,7 @@
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53709008673002068</v>
+        <v>0.31426130646281936</v>
       </c>
       <c r="B172" s="2">
         <v>284</v>
@@ -6102,7 +6102,7 @@
     <row r="173" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31017203142307437</v>
+        <v>1.8102649087782252E-2</v>
       </c>
       <c r="B173" s="2">
         <v>101</v>
@@ -6126,7 +6126,7 @@
     <row r="174" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99898000224568118</v>
+        <v>0.4904155972841876</v>
       </c>
       <c r="B174" s="2">
         <v>53</v>
@@ -6150,7 +6150,7 @@
     <row r="175" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48249234307220346</v>
+        <v>0.97213362082473465</v>
       </c>
       <c r="B175" s="2">
         <v>121</v>
@@ -6174,7 +6174,7 @@
     <row r="176" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74449625361594229</v>
+        <v>0.94623206356550171</v>
       </c>
       <c r="B176" s="2">
         <v>266</v>
@@ -6201,7 +6201,7 @@
     <row r="177" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35266871465955174</v>
+        <v>0.78647035762563577</v>
       </c>
       <c r="B177" s="2">
         <v>4</v>
@@ -6225,7 +6225,7 @@
     <row r="178" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9639020546557161</v>
+        <v>0.42079783974210516</v>
       </c>
       <c r="B178" s="2">
         <v>193</v>
@@ -6249,7 +6249,7 @@
     <row r="179" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27509853769598713</v>
+        <v>1.5814868419888106E-2</v>
       </c>
       <c r="B179" s="2">
         <v>212</v>
@@ -6270,7 +6270,7 @@
     <row r="180" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94800911972790081</v>
+        <v>0.8781240925306294</v>
       </c>
       <c r="B180" s="2">
         <v>117</v>
@@ -6294,7 +6294,7 @@
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4850172060651754</v>
+        <v>0.49163338154039804</v>
       </c>
       <c r="B181" s="2">
         <v>36</v>
@@ -6321,7 +6321,7 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29310185198207328</v>
+        <v>0.96557537066983334</v>
       </c>
       <c r="B182" s="2">
         <v>293</v>
@@ -6345,7 +6345,7 @@
     <row r="183" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20783585114528347</v>
+        <v>0.75373735682673348</v>
       </c>
       <c r="B183" s="2">
         <v>142</v>
@@ -6369,7 +6369,7 @@
     <row r="184" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14352054676838399</v>
+        <v>0.91935001813341821</v>
       </c>
       <c r="B184" s="2">
         <v>26</v>
@@ -6393,7 +6393,7 @@
     <row r="185" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9563435685508147</v>
+        <v>0.38463962638290639</v>
       </c>
       <c r="B185" s="2">
         <v>225</v>
@@ -6417,7 +6417,7 @@
     <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45886981749157107</v>
+        <v>0.28747215748770927</v>
       </c>
       <c r="B186" s="2">
         <v>287</v>
@@ -6441,7 +6441,7 @@
     <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7793084684809739</v>
+        <v>0.25395612416914704</v>
       </c>
       <c r="B187" s="2">
         <v>31</v>
@@ -6465,7 +6465,7 @@
     <row r="188" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78455962972339355</v>
+        <v>4.839819311693927E-2</v>
       </c>
       <c r="B188" s="2">
         <v>44</v>
@@ -6489,7 +6489,7 @@
     <row r="189" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48404681381732317</v>
+        <v>0.18994011881489647</v>
       </c>
       <c r="B189" s="2">
         <v>273</v>
@@ -6513,7 +6513,7 @@
     <row r="190" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84832484541975983</v>
+        <v>5.8055088179312597E-2</v>
       </c>
       <c r="B190" s="2">
         <v>190</v>
@@ -6540,7 +6540,7 @@
     <row r="191" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49495536797178386</v>
+        <v>0.8692141079148612</v>
       </c>
       <c r="B191" s="2">
         <v>206</v>
@@ -6567,7 +6567,7 @@
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64490086689825465</v>
+        <v>0.85304123668950216</v>
       </c>
       <c r="B192" s="2">
         <v>276</v>
@@ -6591,7 +6591,7 @@
     <row r="193" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55933072590114741</v>
+        <v>0.14738177042086431</v>
       </c>
       <c r="B193" s="2">
         <v>63</v>
@@ -6615,7 +6615,7 @@
     <row r="194" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.64366595006188332</v>
+        <v>0.90025484768013753</v>
       </c>
       <c r="B194" s="2">
         <v>25</v>
@@ -6636,7 +6636,7 @@
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51215645063403348</v>
+        <v>0.37751832590347667</v>
       </c>
       <c r="B195" s="2">
         <v>257</v>
@@ -6660,7 +6660,7 @@
     <row r="196" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41331719018550794</v>
+        <v>4.1487155929643915E-2</v>
       </c>
       <c r="B196" s="2">
         <v>5</v>
@@ -6687,7 +6687,7 @@
     <row r="197" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90924991087308038</v>
+        <v>3.5815098826326386E-2</v>
       </c>
       <c r="B197" s="2">
         <v>229</v>
@@ -6714,7 +6714,7 @@
     <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48859998176109909</v>
+        <v>0.36288304327526133</v>
       </c>
       <c r="B198" s="2">
         <v>234</v>
@@ -6738,7 +6738,7 @@
     <row r="199" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79680617036980805</v>
+        <v>0.31728250434248317</v>
       </c>
       <c r="B199" s="2">
         <v>278</v>
@@ -6762,7 +6762,7 @@
     <row r="200" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24257422851265031</v>
+        <v>0.34728012346720727</v>
       </c>
       <c r="B200" s="2">
         <v>97</v>
@@ -6786,7 +6786,7 @@
     <row r="201" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.6988753419622311E-3</v>
+        <v>0.7617153139370676</v>
       </c>
       <c r="B201" s="2">
         <v>64</v>
@@ -6810,7 +6810,7 @@
     <row r="202" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21491238222650588</v>
+        <v>0.4911207541617626</v>
       </c>
       <c r="B202" s="2">
         <v>231</v>
@@ -6834,7 +6834,7 @@
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55235890028589174</v>
+        <v>0.76059734944529167</v>
       </c>
       <c r="B203" s="2">
         <v>186</v>
@@ -6858,7 +6858,7 @@
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16417105906503271</v>
+        <v>0.64625442248060416</v>
       </c>
       <c r="B204" s="2">
         <v>215</v>
@@ -6882,7 +6882,7 @@
     <row r="205" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28187257429866919</v>
+        <v>0.40884019427922658</v>
       </c>
       <c r="B205" s="2">
         <v>235</v>
@@ -6906,7 +6906,7 @@
     <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81378211701934844</v>
+        <v>0.38930349243975437</v>
       </c>
       <c r="B206" s="2">
         <v>313</v>
@@ -6933,7 +6933,7 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54540121144462028</v>
+        <v>0.33793388150942416</v>
       </c>
       <c r="B207" s="2">
         <v>84</v>
@@ -6954,7 +6954,7 @@
     <row r="208" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51922751159598179</v>
+        <v>0.9841433666164856</v>
       </c>
       <c r="B208" s="2">
         <v>166</v>
@@ -6981,7 +6981,7 @@
     <row r="209" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66406559608257587</v>
+        <v>0.32402198990734654</v>
       </c>
       <c r="B209" s="2">
         <v>270</v>
@@ -7005,7 +7005,7 @@
     <row r="210" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12512505907798777</v>
+        <v>0.84156464337248493</v>
       </c>
       <c r="B210" s="2">
         <v>98</v>
@@ -7029,7 +7029,7 @@
     <row r="211" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16564331146028066</v>
+        <v>0.57790204149830882</v>
       </c>
       <c r="B211" s="2">
         <v>68</v>
@@ -7053,7 +7053,7 @@
     <row r="212" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7661461608532939</v>
+        <v>6.1665206828718455E-2</v>
       </c>
       <c r="B212" s="2">
         <v>237</v>
@@ -7074,7 +7074,7 @@
     <row r="213" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21941847562887118</v>
+        <v>0.24201811838986031</v>
       </c>
       <c r="B213" s="2">
         <v>277</v>
@@ -7095,7 +7095,7 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29220585733951421</v>
+        <v>0.49262572030929774</v>
       </c>
       <c r="B214" s="2">
         <v>16</v>
@@ -7116,7 +7116,7 @@
     <row r="215" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22686442137785168</v>
+        <v>0.5437954333292726</v>
       </c>
       <c r="B215" s="2">
         <v>62</v>
@@ -7140,7 +7140,7 @@
     <row r="216" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6942017026906506E-2</v>
+        <v>0.54318644281144302</v>
       </c>
       <c r="B216" s="2">
         <v>90</v>
@@ -7164,7 +7164,7 @@
     <row r="217" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1033088221999385E-2</v>
+        <v>0.96497693931692219</v>
       </c>
       <c r="B217" s="2">
         <v>279</v>
@@ -7188,7 +7188,7 @@
     <row r="218" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8090942533897918</v>
+        <v>0.63898322770164817</v>
       </c>
       <c r="B218" s="2">
         <v>76</v>
@@ -7212,7 +7212,7 @@
     <row r="219" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16207919576936547</v>
+        <v>0.11355970943712645</v>
       </c>
       <c r="B219" s="2">
         <v>151</v>
@@ -7236,7 +7236,7 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28129930995065922</v>
+        <v>0.37130422978971434</v>
       </c>
       <c r="B220" s="2">
         <v>211</v>
@@ -7260,7 +7260,7 @@
     <row r="221" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18051055143205486</v>
+        <v>0.77818374207932706</v>
       </c>
       <c r="B221" s="2">
         <v>202</v>
@@ -7281,7 +7281,7 @@
     <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37436838991744126</v>
+        <v>0.85247541284910389</v>
       </c>
       <c r="B222" s="2">
         <v>281</v>
@@ -7308,7 +7308,7 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46781493265531049</v>
+        <v>0.21639838595188665</v>
       </c>
       <c r="B223" s="2">
         <v>256</v>
@@ -7335,7 +7335,7 @@
     <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84842880918194052</v>
+        <v>0.14443413238230651</v>
       </c>
       <c r="B224" s="2">
         <v>134</v>
@@ -7356,7 +7356,7 @@
     <row r="225" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86728255206588711</v>
+        <v>0.86990178745345981</v>
       </c>
       <c r="B225" s="2">
         <v>129</v>
@@ -7380,7 +7380,7 @@
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44539954795060688</v>
+        <v>0.42421852492278211</v>
       </c>
       <c r="B226" s="2">
         <v>17</v>
@@ -7401,7 +7401,7 @@
     <row r="227" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32690451292544698</v>
+        <v>8.2269043257617414E-2</v>
       </c>
       <c r="B227" s="2">
         <v>124</v>
@@ -7425,7 +7425,7 @@
     <row r="228" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64880989679472345</v>
+        <v>0.40342809704946736</v>
       </c>
       <c r="B228" s="2">
         <v>79</v>
@@ -7449,7 +7449,7 @@
     <row r="229" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26677230855284895</v>
+        <v>0.10897171497016722</v>
       </c>
       <c r="B229" s="2">
         <v>189</v>
@@ -7473,7 +7473,7 @@
     <row r="230" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40851086733663544</v>
+        <v>0.4831229334493341</v>
       </c>
       <c r="B230" s="2">
         <v>233</v>
@@ -7494,7 +7494,7 @@
     <row r="231" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70950052214705539</v>
+        <v>0.41599605260365691</v>
       </c>
       <c r="B231" s="2">
         <v>126</v>
@@ -7515,7 +7515,7 @@
     <row r="232" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1457188820469153</v>
+        <v>0.1423718965096723</v>
       </c>
       <c r="B232" s="2">
         <v>77</v>
@@ -7539,7 +7539,7 @@
     <row r="233" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67602585240889534</v>
+        <v>0.3283875338278186</v>
       </c>
       <c r="B233" s="2">
         <v>75</v>
@@ -7563,7 +7563,7 @@
     <row r="234" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19808995218928838</v>
+        <v>0.25203742795386552</v>
       </c>
       <c r="B234" s="2">
         <v>99</v>
@@ -7587,7 +7587,7 @@
     <row r="235" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70352565099244435</v>
+        <v>0.18788680428836702</v>
       </c>
       <c r="B235" s="2">
         <v>160</v>
@@ -7611,7 +7611,7 @@
     <row r="236" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14334830233772777</v>
+        <v>0.30828269903739725</v>
       </c>
       <c r="B236" s="2">
         <v>50</v>
@@ -7635,7 +7635,7 @@
     <row r="237" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75265015230203747</v>
+        <v>0.2835307724735272</v>
       </c>
       <c r="B237" s="2">
         <v>180</v>
@@ -7662,7 +7662,7 @@
     <row r="238" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31370799172637187</v>
+        <v>0.10386727638896609</v>
       </c>
       <c r="B238" s="2">
         <v>228</v>
@@ -7686,7 +7686,7 @@
     <row r="239" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7185887327695335</v>
+        <v>0.47041450150969133</v>
       </c>
       <c r="B239" s="2">
         <v>105</v>
@@ -7710,7 +7710,7 @@
     <row r="240" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39487719809810984</v>
+        <v>0.39716799954369864</v>
       </c>
       <c r="B240" s="2">
         <v>120</v>
@@ -7740,7 +7740,7 @@
     <row r="241" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93438754180400241</v>
+        <v>0.81959939508160573</v>
       </c>
       <c r="B241" s="2">
         <v>267</v>
@@ -7770,7 +7770,7 @@
     <row r="242" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9358972946713322</v>
+        <v>0.34048397822579579</v>
       </c>
       <c r="B242" s="2">
         <v>65</v>
@@ -7791,7 +7791,7 @@
     <row r="243" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87301085072887519</v>
+        <v>0.47134196436256803</v>
       </c>
       <c r="B243" s="2">
         <v>197</v>
@@ -7815,7 +7815,7 @@
     <row r="244" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45235082422053863</v>
+        <v>0.95402725926536314</v>
       </c>
       <c r="B244" s="2">
         <v>128</v>
@@ -7842,7 +7842,7 @@
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43428471418160941</v>
+        <v>0.13749657434091489</v>
       </c>
       <c r="B245" s="2">
         <v>303</v>
@@ -7866,7 +7866,7 @@
     <row r="246" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97991174289657912</v>
+        <v>0.47276253753280262</v>
       </c>
       <c r="B246" s="2">
         <v>95</v>
@@ -7887,7 +7887,7 @@
     <row r="247" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10573508166567513</v>
+        <v>0.64923700397531714</v>
       </c>
       <c r="B247" s="2">
         <v>214</v>
@@ -7914,7 +7914,7 @@
     <row r="248" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7118739528519753</v>
+        <v>0.24295046953491473</v>
       </c>
       <c r="B248" s="2">
         <v>290</v>
@@ -7941,7 +7941,7 @@
     <row r="249" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35102176642463834</v>
+        <v>0.39103812051574005</v>
       </c>
       <c r="B249" s="2">
         <v>260</v>
@@ -7965,7 +7965,7 @@
     <row r="250" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36752680951773997</v>
+        <v>0.43172506068241978</v>
       </c>
       <c r="B250" s="2">
         <v>112</v>
@@ -7986,7 +7986,7 @@
     <row r="251" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35830056883899075</v>
+        <v>0.11744811475194583</v>
       </c>
       <c r="B251" s="2">
         <v>304</v>
@@ -8007,7 +8007,7 @@
     <row r="252" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37591288013806357</v>
+        <v>0.33523309001395507</v>
       </c>
       <c r="B252" s="2">
         <v>315</v>
@@ -8034,7 +8034,7 @@
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72355943237675535</v>
+        <v>0.5639846187605958</v>
       </c>
       <c r="B253" s="2">
         <v>113</v>
@@ -8055,7 +8055,7 @@
     <row r="254" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29637945938613741</v>
+        <v>0.40582433020504993</v>
       </c>
       <c r="B254" s="2">
         <v>305</v>
@@ -8079,7 +8079,7 @@
     <row r="255" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46476240760911947</v>
+        <v>0.27008124924727872</v>
       </c>
       <c r="B255" s="2">
         <v>92</v>
@@ -8103,7 +8103,7 @@
     <row r="256" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17089271713807719</v>
+        <v>0.76381392808430792</v>
       </c>
       <c r="B256" s="2">
         <v>158</v>
@@ -8124,7 +8124,7 @@
     <row r="257" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14643713907478473</v>
+        <v>0.26980584533012564</v>
       </c>
       <c r="B257" s="2">
         <v>200</v>
@@ -8148,7 +8148,7 @@
     <row r="258" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A316" ca="1" si="4">RAND()</f>
-        <v>0.30792619327711312</v>
+        <v>9.450736894846623E-2</v>
       </c>
       <c r="B258" s="2">
         <v>264</v>
@@ -8169,7 +8169,7 @@
     <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1206984026769975</v>
+        <v>0.26074848022826924</v>
       </c>
       <c r="B259" s="2">
         <v>274</v>
@@ -8196,7 +8196,7 @@
     <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52640060294234736</v>
+        <v>0.96129296117400609</v>
       </c>
       <c r="B260" s="2">
         <v>310</v>
@@ -8220,7 +8220,7 @@
     <row r="261" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25500019774551608</v>
+        <v>0.17415598207337024</v>
       </c>
       <c r="B261" s="2">
         <v>298</v>
@@ -8247,7 +8247,7 @@
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7257125987226507</v>
+        <v>0.52456561418243297</v>
       </c>
       <c r="B262" s="2">
         <v>19</v>
@@ -8271,7 +8271,7 @@
     <row r="263" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5979771775873548</v>
+        <v>0.66040934280792019</v>
       </c>
       <c r="B263" s="2">
         <v>30</v>
@@ -8295,7 +8295,7 @@
     <row r="264" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14326534193478468</v>
+        <v>0.13334000172806282</v>
       </c>
       <c r="B264" s="2">
         <v>1</v>
@@ -8322,7 +8322,7 @@
     <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28569580724197763</v>
+        <v>0.54476851561736062</v>
       </c>
       <c r="B265" s="2">
         <v>224</v>
@@ -8349,7 +8349,7 @@
     <row r="266" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52960482737598935</v>
+        <v>0.20750070398712583</v>
       </c>
       <c r="B266" s="2">
         <v>2</v>
@@ -8376,7 +8376,7 @@
     <row r="267" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.8585717385018645E-2</v>
+        <v>2.6189071041785028E-2</v>
       </c>
       <c r="B267" s="2">
         <v>48</v>
@@ -8400,7 +8400,7 @@
     <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15923595683521052</v>
+        <v>0.35553621930693935</v>
       </c>
       <c r="B268" s="2">
         <v>42</v>
@@ -8421,7 +8421,7 @@
     <row r="269" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21644411684976916</v>
+        <v>0.70778476203371687</v>
       </c>
       <c r="B269" s="2">
         <v>96</v>
@@ -8445,7 +8445,7 @@
     <row r="270" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26067139708058673</v>
+        <v>3.9582554427105787E-2</v>
       </c>
       <c r="B270" s="2">
         <v>61</v>
@@ -8469,7 +8469,7 @@
     <row r="271" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94825770657430308</v>
+        <v>0.13546729271257674</v>
       </c>
       <c r="B271" s="2">
         <v>164</v>
@@ -8493,7 +8493,7 @@
     <row r="272" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64897560542917776</v>
+        <v>0.32903545054365102</v>
       </c>
       <c r="B272" s="2">
         <v>309</v>
@@ -8520,7 +8520,7 @@
     <row r="273" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73699459811143264</v>
+        <v>0.34610836389132571</v>
       </c>
       <c r="B273" s="2">
         <v>241</v>
@@ -8541,7 +8541,7 @@
     <row r="274" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86160610791836278</v>
+        <v>0.41767043246182756</v>
       </c>
       <c r="B274" s="2">
         <v>199</v>
@@ -8574,7 +8574,7 @@
     <row r="275" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96157483551670164</v>
+        <v>9.4272736201632013E-2</v>
       </c>
       <c r="B275" s="2">
         <v>307</v>
@@ -8595,7 +8595,7 @@
     <row r="276" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84581772713912373</v>
+        <v>0.55711746990221589</v>
       </c>
       <c r="B276" s="2">
         <v>194</v>
@@ -8619,7 +8619,7 @@
     <row r="277" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53176852410264752</v>
+        <v>0.63118251776183065</v>
       </c>
       <c r="B277" s="2">
         <v>102</v>
@@ -8646,7 +8646,7 @@
     <row r="278" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17169742596203608</v>
+        <v>6.0005946413805411E-2</v>
       </c>
       <c r="B278" s="2">
         <v>208</v>
@@ -8670,7 +8670,7 @@
     <row r="279" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11759019602927867</v>
+        <v>0.28825528063790118</v>
       </c>
       <c r="B279" s="2">
         <v>139</v>
@@ -8697,7 +8697,7 @@
     <row r="280" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76980863961960444</v>
+        <v>0.85197285889997532</v>
       </c>
       <c r="B280" s="2">
         <v>66</v>
@@ -8721,7 +8721,7 @@
     <row r="281" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53006845700120142</v>
+        <v>0.7573450175057217</v>
       </c>
       <c r="B281" s="2">
         <v>248</v>
@@ -8742,7 +8742,7 @@
     <row r="282" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1670652051046484</v>
+        <v>0.55895376872821556</v>
       </c>
       <c r="B282" s="2">
         <v>58</v>
@@ -8766,7 +8766,7 @@
     <row r="283" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25155241918993754</v>
+        <v>0.13547004224577541</v>
       </c>
       <c r="B283" s="2">
         <v>289</v>
@@ -8787,7 +8787,7 @@
     <row r="284" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60185949642383529</v>
+        <v>0.89301081440957197</v>
       </c>
       <c r="B284" s="2">
         <v>222</v>
@@ -8817,7 +8817,7 @@
     <row r="285" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21638739298866572</v>
+        <v>9.6526418312425921E-4</v>
       </c>
       <c r="B285" s="2">
         <v>299</v>
@@ -8841,7 +8841,7 @@
     <row r="286" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28826156992841945</v>
+        <v>0.38435646412338154</v>
       </c>
       <c r="B286" s="2">
         <v>131</v>
@@ -8868,7 +8868,7 @@
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55706305887818153</v>
+        <v>0.5922173316320013</v>
       </c>
       <c r="B287" s="2">
         <v>294</v>
@@ -8892,7 +8892,7 @@
     <row r="288" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65688358388301626</v>
+        <v>0.98116464377770674</v>
       </c>
       <c r="B288" s="2">
         <v>291</v>
@@ -8916,7 +8916,7 @@
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70545261471645304</v>
+        <v>0.59855994965608383</v>
       </c>
       <c r="B289" s="2">
         <v>35</v>
@@ -8940,7 +8940,7 @@
     <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65039985555226443</v>
+        <v>0.56604844499759344</v>
       </c>
       <c r="B290" s="2">
         <v>188</v>
@@ -8964,7 +8964,7 @@
     <row r="291" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81400093150457564</v>
+        <v>9.682215480435663E-2</v>
       </c>
       <c r="B291" s="2">
         <v>246</v>
@@ -8988,7 +8988,7 @@
     <row r="292" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77093796132941006</v>
+        <v>0.36915659054142014</v>
       </c>
       <c r="B292" s="2">
         <v>118</v>
@@ -9009,7 +9009,7 @@
     <row r="293" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74432188209081118</v>
+        <v>0.44712368135601299</v>
       </c>
       <c r="B293" s="2">
         <v>60</v>
@@ -9033,7 +9033,7 @@
     <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84902976258156171</v>
+        <v>0.30837835679274084</v>
       </c>
       <c r="B294" s="2">
         <v>170</v>
@@ -9057,7 +9057,7 @@
     <row r="295" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.4028857862080706E-2</v>
+        <v>0.66926297085383213</v>
       </c>
       <c r="B295" s="2">
         <v>9</v>
@@ -9081,7 +9081,7 @@
     <row r="296" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75489964613251148</v>
+        <v>2.2769875846996523E-2</v>
       </c>
       <c r="B296" s="2">
         <v>46</v>
@@ -9102,7 +9102,7 @@
     <row r="297" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53873416327602575</v>
+        <v>1.2711663932692296E-2</v>
       </c>
       <c r="B297" s="2">
         <v>240</v>
@@ -9129,7 +9129,7 @@
     <row r="298" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39217826243231135</v>
+        <v>0.94296245500291453</v>
       </c>
       <c r="B298" s="2">
         <v>11</v>
@@ -9150,7 +9150,7 @@
     <row r="299" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2887226790241466E-2</v>
+        <v>0.22185910172594125</v>
       </c>
       <c r="B299" s="2">
         <v>71</v>
@@ -9174,7 +9174,7 @@
     <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49812452126851547</v>
+        <v>0.62850727358412617</v>
       </c>
       <c r="B300" s="2">
         <v>156</v>
@@ -9198,7 +9198,7 @@
     <row r="301" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13098997697330428</v>
+        <v>0.96389215493222979</v>
       </c>
       <c r="B301" s="2">
         <v>236</v>
@@ -9222,7 +9222,7 @@
     <row r="302" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8144487819496966E-3</v>
+        <v>0.38724341769511017</v>
       </c>
       <c r="B302" s="2">
         <v>23</v>
@@ -9246,7 +9246,7 @@
     <row r="303" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67798660811549971</v>
+        <v>0.64118717792413293</v>
       </c>
       <c r="B303" s="2">
         <v>52</v>
@@ -9270,7 +9270,7 @@
     <row r="304" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75094431489807423</v>
+        <v>0.55739869976456669</v>
       </c>
       <c r="B304" s="2">
         <v>122</v>
@@ -9297,7 +9297,7 @@
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33921220049848666</v>
+        <v>0.90286058910881628</v>
       </c>
       <c r="B305" s="2">
         <v>295</v>
@@ -9324,7 +9324,7 @@
     <row r="306" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35127961634905758</v>
+        <v>0.1145017352035983</v>
       </c>
       <c r="B306" s="2">
         <v>3</v>
@@ -9345,7 +9345,7 @@
     <row r="307" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54220660050081781</v>
+        <v>0.59240966293256936</v>
       </c>
       <c r="B307" s="2">
         <v>207</v>
@@ -9369,7 +9369,7 @@
     <row r="308" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.98409094885550996</v>
+        <v>0.60172506130596326</v>
       </c>
       <c r="B308" s="2">
         <v>209</v>
@@ -9390,7 +9390,7 @@
     <row r="309" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.94178364771709155</v>
+        <v>3.7333859848581508E-2</v>
       </c>
       <c r="B309" s="2">
         <v>138</v>
@@ -9414,7 +9414,7 @@
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19330575590161325</v>
+        <v>0.58792792362086332</v>
       </c>
       <c r="B310" s="2">
         <v>297</v>
@@ -9438,7 +9438,7 @@
     <row r="311" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87564045080127539</v>
+        <v>0.48589594045014795</v>
       </c>
       <c r="B311" s="2">
         <v>144</v>
@@ -9459,7 +9459,7 @@
     <row r="312" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.79342462662959978</v>
+        <v>0.98455210117334035</v>
       </c>
       <c r="B312" s="2">
         <v>56</v>
@@ -9483,7 +9483,7 @@
     <row r="313" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.3581256133994883E-2</v>
+        <v>0.60555047944177987</v>
       </c>
       <c r="B313" s="2">
         <v>230</v>
@@ -9507,7 +9507,7 @@
     <row r="314" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24978653517704519</v>
+        <v>0.41798374205158662</v>
       </c>
       <c r="B314" s="2">
         <v>140</v>
@@ -9531,7 +9531,7 @@
     <row r="315" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21892849289301186</v>
+        <v>0.398755561932291</v>
       </c>
       <c r="B315" s="2">
         <v>27</v>
@@ -9555,7 +9555,7 @@
     <row r="316" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63375067749639125</v>
+        <v>0.1660929397669233</v>
       </c>
       <c r="B316" s="2">
         <v>133</v>
@@ -9743,7 +9743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+    <sheetView topLeftCell="A296" workbookViewId="0">
       <selection activeCell="A319" sqref="A317:XFD319"/>
     </sheetView>
   </sheetViews>
